--- a/xlsxs/SkillConfig.xlsx
+++ b/xlsxs/SkillConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>id</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>FanShotBulletSkill</t>
   </si>
 </sst>
 </file>
@@ -698,13 +701,10 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1243,22 +1243,21 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.5" defaultRowHeight="16.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.48333333333333" defaultRowHeight="16.5" outlineLevelRow="3"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="12.625" style="1" customWidth="1"/>
-    <col min="3" max="1028" width="9.5" style="1" customWidth="1"/>
-    <col min="1029" max="16384" width="9.5" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="1"/>
+    <col min="2" max="2" width="18.6333333333333" style="1" customWidth="1"/>
+    <col min="3" max="1024" width="9.5" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1342,11 +1341,32 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>1</v>
       </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>-90</v>
+      </c>
+      <c r="G4" s="1">
+        <v>45</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1</v>
+      </c>
+      <c r="I4" s="1">
         <v>1</v>
       </c>
     </row>

--- a/xlsxs/SkillConfig.xlsx
+++ b/xlsxs/SkillConfig.xlsx
@@ -38,37 +38,37 @@
     <t>cdTime</t>
   </si>
   <si>
-    <t>arg0</t>
-  </si>
-  <si>
-    <t>arg1</t>
-  </si>
-  <si>
-    <t>arg2</t>
-  </si>
-  <si>
-    <t>arg3</t>
-  </si>
-  <si>
-    <t>arg4</t>
-  </si>
-  <si>
-    <t>arg5</t>
-  </si>
-  <si>
-    <t>arg6</t>
-  </si>
-  <si>
-    <t>arg7</t>
-  </si>
-  <si>
-    <t>arg8</t>
-  </si>
-  <si>
-    <t>arg9</t>
-  </si>
-  <si>
-    <t>arg10</t>
+    <t>args0</t>
+  </si>
+  <si>
+    <t>args1</t>
+  </si>
+  <si>
+    <t>args2</t>
+  </si>
+  <si>
+    <t>args3</t>
+  </si>
+  <si>
+    <t>args4</t>
+  </si>
+  <si>
+    <t>args5</t>
+  </si>
+  <si>
+    <t>args6</t>
+  </si>
+  <si>
+    <t>args7</t>
+  </si>
+  <si>
+    <t>args8</t>
+  </si>
+  <si>
+    <t>args9</t>
+  </si>
+  <si>
+    <t>args10</t>
   </si>
   <si>
     <t>int</t>
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.48333333333333" defaultRowHeight="16.5" outlineLevelRow="3"/>
@@ -1263,37 +1263,37 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1307,37 +1307,37 @@
       <c r="C2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" t="s">
         <v>15</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" t="s">
         <v>15</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" t="s">
         <v>15</v>
       </c>
     </row>

--- a/xlsxs/SkillConfig.xlsx
+++ b/xlsxs/SkillConfig.xlsx
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.48333333333333" defaultRowHeight="16.5" outlineLevelRow="3"/>
@@ -1355,13 +1355,13 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1">
         <v>-90</v>
       </c>
       <c r="G4" s="1">
-        <v>45</v>
+        <v>360</v>
       </c>
       <c r="H4" s="1">
         <v>1</v>

--- a/xlsxs/SkillConfig.xlsx
+++ b/xlsxs/SkillConfig.xlsx
@@ -77,7 +77,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>float</t>
+    <t>FP</t>
   </si>
   <si>
     <t>FanShotBulletSkill</t>
@@ -1243,7 +1243,7 @@
   <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P27" sqref="P27"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.48333333333333" defaultRowHeight="16.5" outlineLevelRow="3"/>
@@ -1355,7 +1355,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1">
         <v>-90</v>

--- a/xlsxs/SkillConfig.xlsx
+++ b/xlsxs/SkillConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
   <si>
     <t>id</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>FanShotBulletSkill</t>
+  </si>
+  <si>
+    <t>ParallelBulletSkill</t>
   </si>
 </sst>
 </file>
@@ -1240,13 +1243,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.48333333333333" defaultRowHeight="16.5" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9.48333333333333" defaultRowHeight="16.5" outlineLevelRow="4"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1"/>
     <col min="2" max="2" width="18.6333333333333" style="1" customWidth="1"/>
@@ -1355,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F4" s="1">
         <v>-90</v>
@@ -1367,6 +1370,32 @@
         <v>1</v>
       </c>
       <c r="I4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-10</v>
+      </c>
+      <c r="H5" s="1">
         <v>1</v>
       </c>
     </row>

--- a/xlsxs/SkillConfig.xlsx
+++ b/xlsxs/SkillConfig.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -83,7 +83,10 @@
     <t>FanShotBulletSkill</t>
   </si>
   <si>
-    <t>ParallelBulletSkill</t>
+    <t>SectorRandomBulletSkill</t>
+  </si>
+  <si>
+    <t>SectorUniformBulletSkill</t>
   </si>
 </sst>
 </file>
@@ -1243,13 +1246,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.48333333333333" defaultRowHeight="16.5" outlineLevelRow="4"/>
+  <sheetFormatPr defaultColWidth="9.48333333333333" defaultRowHeight="16.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1"/>
     <col min="2" max="2" width="18.6333333333333" style="1" customWidth="1"/>
@@ -1373,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>2</v>
       </c>
@@ -1387,15 +1390,44 @@
         <v>1</v>
       </c>
       <c r="E5" s="1">
-        <v>0.5</v>
+        <v>5</v>
       </c>
       <c r="F5" s="1">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
-        <v>-10</v>
+        <v>90</v>
       </c>
       <c r="H5" s="1">
+        <v>-90</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>45</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2</v>
+      </c>
+      <c r="H6" s="1">
         <v>1</v>
       </c>
     </row>
